--- a/PCB_Project_Source_IoT/Templates/TemplateBoM_VirtusCC.xlsx
+++ b/PCB_Project_Source_IoT/Templates/TemplateBoM_VirtusCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academicoifrnedu-my.sharepoint.com/personal/joab_s_academico_ifrn_edu_br/Documents/Documents/SourceIoT/PCB_Project_Source_IoT/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xfalc\OneDrive - IFRN\Documents\SourceIoT\PCB_Project_Source_IoT\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{4A39FF3C-299B-4F63-92E7-2936FF48E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{142F3D3E-316A-4228-A927-A194280B05AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB21DC-E63B-4439-8BD5-8F3ABF7CFA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{21897153-7DC8-4A57-8222-6E500058D9CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21897153-7DC8-4A57-8222-6E500058D9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,30 @@
     <t>Lista de Materiais</t>
   </si>
   <si>
+    <t>Column=Designator</t>
+  </si>
+  <si>
+    <t>Column=Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Column=Description</t>
+  </si>
+  <si>
+    <t>Column=Quantity</t>
+  </si>
+  <si>
+    <t>Column=Supplier 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Stock 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Unit Price 1</t>
+  </si>
+  <si>
+    <t>Column=Supplier Subtotal 1</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
@@ -60,6 +84,12 @@
     <t>Contato:</t>
   </si>
   <si>
+    <t>Field = DataSourceFileName</t>
+  </si>
+  <si>
+    <t>Field = ReportDate</t>
+  </si>
+  <si>
     <t>Impostos</t>
   </si>
   <si>
@@ -117,43 +147,13 @@
     <t>Valores</t>
   </si>
   <si>
-    <t>Virtus CC</t>
-  </si>
-  <si>
-    <t>PCB_Project_Source_IoT.BomDoc</t>
-  </si>
-  <si>
-    <t>v.0.1</t>
-  </si>
-  <si>
-    <t>25/10/2024</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>#Column Name Error:' Manufacturer Part Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Supplier 1</t>
-  </si>
-  <si>
-    <t>Supplier Part Number 1</t>
-  </si>
-  <si>
-    <t>Supplier Stock 1</t>
-  </si>
-  <si>
-    <t>Supplier Unit Price 1</t>
-  </si>
-  <si>
-    <t>Supplier Subtotal 1</t>
+    <t>Column=Supplier Part Number 1</t>
+  </si>
+  <si>
+    <t>Field = Rev</t>
+  </si>
+  <si>
+    <t>Field = Projeto</t>
   </si>
 </sst>
 </file>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -470,23 +470,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,7 +632,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -938,24 +935,24 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" hidden="1"/>
+    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
@@ -967,7 +964,7 @@
       <c r="J1" s="48"/>
       <c r="K1" s="48"/>
     </row>
-    <row r="5" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:11" ht="33" x14ac:dyDescent="0.6">
       <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
@@ -981,12 +978,12 @@
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -997,12 +994,12 @@
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
@@ -1013,12 +1010,12 @@
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -1029,12 +1026,12 @@
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
@@ -1045,9 +1042,9 @@
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1059,39 +1056,39 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="19">
         <f>ROW(B13)-ROW($B$12)</f>
         <v>1</v>
@@ -1106,7 +1103,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="19">
         <f t="shared" ref="B14:B15" si="0">ROW(B14)-ROW($B$12)</f>
         <v>2</v>
@@ -1121,7 +1118,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1136,7 +1133,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="22"/>
       <c r="C16" s="23">
         <f>SUM(C13:C15)</f>
@@ -1183,35 +1180,35 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="28" hidden="1"/>
-    <col min="9" max="9" width="26.7109375" hidden="1"/>
-    <col min="10" max="10" width="26.140625" hidden="1"/>
-    <col min="11" max="16362" width="8.85546875" hidden="1"/>
-    <col min="16364" max="16384" width="8.85546875" hidden="1"/>
+    <col min="9" max="9" width="26.6640625" hidden="1"/>
+    <col min="10" max="10" width="26.109375" hidden="1"/>
+    <col min="11" max="16362" width="8.88671875" hidden="1"/>
+    <col min="16364" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1219,7 +1216,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -1228,26 +1225,26 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="29"/>
-      <c r="B10" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="B10" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1256,9 +1253,9 @@
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8">
         <f>BoM!K16</f>
@@ -1275,9 +1272,9 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8">
         <v>40</v>
@@ -1293,9 +1290,9 @@
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8">
         <f>0.6*SUM(B12:B13)</f>
@@ -1312,9 +1309,9 @@
       <c r="H14" s="5"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B15" s="8">
         <f>SUM(B12:B14)*0.18/0.82</f>
@@ -1329,9 +1326,9 @@
       <c r="F15" s="37"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" s="8">
         <v>16.87</v>
@@ -1345,9 +1342,9 @@
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" s="15">
         <f>SUM(B14:B16)</f>
@@ -1362,13 +1359,13 @@
       <c r="F17" s="37"/>
       <c r="G17" s="38"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A19" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.6">
+      <c r="A19" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1376,7 +1373,7 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1385,10 +1382,10 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="e">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="str">
         <f ca="1">"USD &lt;-&gt; BRL (" &amp; TEXT(TODAY(),"DD/MM/AA") &amp;")"</f>
-        <v>#VALUE!</v>
+        <v>USD &lt;-&gt; BRL (12/11/24)</v>
       </c>
       <c r="B21" s="33">
         <v>5.42</v>
@@ -1396,9 +1393,9 @@
       <c r="C21" s="34"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B22" s="35">
         <f>B21*1.04</f>
@@ -1407,20 +1404,20 @@
       <c r="C22" s="36"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B24" s="8">
         <f>SUM(B12:B13)</f>
@@ -1435,9 +1432,9 @@
       <c r="F24" s="37"/>
       <c r="G24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B25" s="8">
         <f>SUM(B14:B16)</f>
@@ -1452,9 +1449,9 @@
       <c r="F25" s="37"/>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B26" s="28">
         <f>SUM(B24:B25)</f>
@@ -1469,23 +1466,23 @@
       <c r="F26" s="39"/>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
+    <row r="27" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="44"/>
       <c r="G27" s="45"/>
     </row>
-    <row r="28" spans="1:9" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+    <row r="28" spans="1:9" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="43"/>
@@ -1493,26 +1490,26 @@
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
     </row>
-    <row r="64" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1520,6 +1517,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eafd81bd-aa47-44fe-a879-d8b0a59d073f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67754bcf-640a-45dc-a4a1-3295cc8f1c13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100983A3410C182AB469BFD6543519C0FE4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2fe405e9385892723840c96a6d735dcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67754bcf-640a-45dc-a4a1-3295cc8f1c13" xmlns:ns3="eafd81bd-aa47-44fe-a879-d8b0a59d073f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e3278376455a019c4f3e06f3cbff1cf" ns2:_="" ns3:_="">
     <xsd:import namespace="67754bcf-640a-45dc-a4a1-3295cc8f1c13"/>
@@ -1722,27 +1739,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ECEDFC9-7F99-4013-85DF-09F0F86F7B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eafd81bd-aa47-44fe-a879-d8b0a59d073f"/>
+    <ds:schemaRef ds:uri="67754bcf-640a-45dc-a4a1-3295cc8f1c13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eafd81bd-aa47-44fe-a879-d8b0a59d073f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67754bcf-640a-45dc-a4a1-3295cc8f1c13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4973F1-FB21-417F-AF6C-D9174DD308EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A013DF8D-4E7A-4B00-A047-BE5897B9F82D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1759,23 +1775,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4973F1-FB21-417F-AF6C-D9174DD308EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ECEDFC9-7F99-4013-85DF-09F0F86F7B6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eafd81bd-aa47-44fe-a879-d8b0a59d073f"/>
-    <ds:schemaRef ds:uri="67754bcf-640a-45dc-a4a1-3295cc8f1c13"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PCB_Project_Source_IoT/Templates/TemplateBoM_VirtusCC.xlsx
+++ b/PCB_Project_Source_IoT/Templates/TemplateBoM_VirtusCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xfalc\OneDrive - IFRN\Documents\SourceIoT\PCB_Project_Source_IoT\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonatas.kinas\Desktop\PCB_Project_Placa_Test\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB21DC-E63B-4439-8BD5-8F3ABF7CFA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A39FF3C-299B-4F63-92E7-2936FF48E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21897153-7DC8-4A57-8222-6E500058D9CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{21897153-7DC8-4A57-8222-6E500058D9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
@@ -935,24 +935,24 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.109375" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" hidden="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
@@ -964,7 +964,7 @@
       <c r="J1" s="48"/>
       <c r="K1" s="48"/>
     </row>
-    <row r="5" spans="2:11" ht="33" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
         <f>ROW(B13)-ROW($B$12)</f>
         <v>1</v>
@@ -1103,7 +1103,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
         <f t="shared" ref="B14:B15" si="0">ROW(B14)-ROW($B$12)</f>
         <v>2</v>
@@ -1118,7 +1118,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1133,7 +1133,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="23">
         <f>SUM(C13:C15)</f>
@@ -1180,30 +1180,30 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="28" hidden="1"/>
-    <col min="9" max="9" width="26.6640625" hidden="1"/>
-    <col min="10" max="10" width="26.109375" hidden="1"/>
-    <col min="11" max="16362" width="8.88671875" hidden="1"/>
-    <col min="16364" max="16384" width="8.88671875" hidden="1"/>
+    <col min="9" max="9" width="26.7109375" hidden="1"/>
+    <col min="10" max="10" width="26.140625" hidden="1"/>
+    <col min="11" max="16362" width="8.85546875" hidden="1"/>
+    <col min="16364" max="16384" width="8.85546875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>17</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -1225,7 +1225,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="55" t="s">
         <v>35</v>
@@ -1238,7 +1238,7 @@
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -1253,7 +1253,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>25</v>
       </c>
@@ -1359,8 +1359,8 @@
       <c r="F17" s="37"/>
       <c r="G17" s="38"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A19" s="53" t="s">
         <v>30</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1382,10 +1382,10 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="str">
         <f ca="1">"USD &lt;-&gt; BRL (" &amp; TEXT(TODAY(),"DD/MM/AA") &amp;")"</f>
-        <v>USD &lt;-&gt; BRL (12/11/24)</v>
+        <v>USD &lt;-&gt; BRL (06/10/24)</v>
       </c>
       <c r="B21" s="33">
         <v>5.42</v>
@@ -1393,7 +1393,7 @@
       <c r="C21" s="34"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>26</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="55" t="s">
         <v>35</v>
@@ -1415,7 +1415,7 @@
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="F24" s="37"/>
       <c r="G24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="F25" s="37"/>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>29</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="F26" s="39"/>
       <c r="G26" s="40"/>
     </row>
-    <row r="27" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>33</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="F27" s="44"/>
       <c r="G27" s="45"/>
     </row>
-    <row r="28" spans="1:9" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
         <v>34</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
     </row>
-    <row r="64" spans="4:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>27</v>
       </c>
